--- a/protected/data/master/issue.xlsx
+++ b/protected/data/master/issue.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="issue" sheetId="1" r:id="rId1"/>
-    <sheet name="issue_type" sheetId="2" r:id="rId2"/>
-    <sheet name="issue_status" sheetId="3" r:id="rId3"/>
+    <sheet name="issue_status" sheetId="3" r:id="rId2"/>
+    <sheet name="issue_type" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -93,7 +93,7 @@
     <t>Customers are requesting we provide a field spares kit with most-commonly used repair items for convenience of repair technicians.</t>
   </si>
   <si>
-    <t>Manufacturing staff report PCA is difficult to assemble and test due to copper-side-up orientation. Suggestion is to orient PCA component-side up providing for full access to components for more effective visual inspection and easier troubleshooting after assembly.</t>
+    <t>Manufacturing staff report assembly of wireless unit is difficult to assemble and test due to copper-side-up orientation of PCA. Suggestion is to orient PCA component-side up providing for full access to components for more effective visual inspection and easier troubleshooting after assembly.</t>
   </si>
 </sst>
 </file>
@@ -1053,15 +1053,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1070,16 +1073,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
         <v>41899</v>
       </c>
       <c r="K2" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1">
         <f>J2</f>
@@ -1087,12 +1090,12 @@
       </c>
       <c r="M2" s="2">
         <f>K2</f>
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1100,6 +1103,9 @@
       <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -1119,23 +1125,23 @@
         <v>22</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L4" si="0">J3</f>
+        <f>J3</f>
         <v>41899</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M4" si="1">K3</f>
+        <f>K3</f>
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1144,95 +1150,36 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1">
         <v>41899</v>
       </c>
       <c r="K4" s="2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
+        <f>J4</f>
         <v>41899</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f>K4</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M4">
+    <sortCondition ref="A2:A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="9.5546875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1287,4 +1234,66 @@
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
   <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.5546875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/protected/data/master/issue.xlsx
+++ b/protected/data/master/issue.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Manufacturing staff report assembly of wireless unit is difficult to assemble and test due to copper-side-up orientation of PCA. Suggestion is to orient PCA component-side up providing for full access to components for more effective visual inspection and easier troubleshooting after assembly.</t>
+  </si>
+  <si>
+    <t>requestor_id</t>
   </si>
 </sst>
 </file>
@@ -991,7 +994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1000,19 +1003,20 @@
     <col min="1" max="1" width="6.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1023,37 +1027,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1064,36 +1071,39 @@
         <v>22</v>
       </c>
       <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>15</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
         <v>41899</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>22</v>
       </c>
-      <c r="L2" s="1">
-        <f>J2</f>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:N4" si="0">K2</f>
         <v>41899</v>
       </c>
-      <c r="M2" s="2">
-        <f>K2</f>
+      <c r="N2" s="2">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1104,7 +1114,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1113,27 +1123,30 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <v>41899</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>22</v>
       </c>
-      <c r="L3" s="1">
-        <f>J3</f>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
         <v>41899</v>
       </c>
-      <c r="M3" s="2">
-        <f>K3</f>
+      <c r="N3" s="2">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1143,30 +1156,33 @@
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
+      <c r="D4" s="2">
+        <v>6</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="2">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
         <v>41899</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>11</v>
       </c>
-      <c r="L4" s="1">
-        <f>J4</f>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
         <v>41899</v>
       </c>
-      <c r="M4" s="2">
-        <f>K4</f>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>

--- a/protected/data/master/issue.xlsx
+++ b/protected/data/master/issue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="19140" windowHeight="9264"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="19140" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="issue" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -63,15 +63,6 @@
     <t>Incorrect PCB layout</t>
   </si>
   <si>
-    <t>TYPE3</t>
-  </si>
-  <si>
-    <t>TYPE2</t>
-  </si>
-  <si>
-    <t>TYPE1</t>
-  </si>
-  <si>
     <t>Issue is active.</t>
   </si>
   <si>
@@ -97,6 +88,24 @@
   </si>
   <si>
     <t>requestor_id</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>FEATURE</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>An activity.</t>
+  </si>
+  <si>
+    <t>An observation of a deficiency in behavior compared to requirements.</t>
+  </si>
+  <si>
+    <t>A behavior to be considered for requirement.</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1036,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1068,7 +1077,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -1111,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -1151,10 +1160,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>6</v>
@@ -1199,7 +1208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1225,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1236,10 +1247,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1256,11 +1267,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" style="4" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
@@ -1275,15 +1288,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1291,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1302,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/protected/data/master/issue.xlsx
+++ b/protected/data/master/issue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="19140" windowHeight="9264" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="19140" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="issue" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -63,18 +63,6 @@
     <t>Incorrect PCB layout</t>
   </si>
   <si>
-    <t>Issue is active.</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>Issue is closed.</t>
-  </si>
-  <si>
-    <t>INACTIVE</t>
-  </si>
-  <si>
     <t>Connectivity of PCB-type inductor is incorrect.</t>
   </si>
   <si>
@@ -99,13 +87,40 @@
     <t>TASK</t>
   </si>
   <si>
-    <t>An activity.</t>
-  </si>
-  <si>
-    <t>An observation of a deficiency in behavior compared to requirements.</t>
-  </si>
-  <si>
-    <t>A behavior to be considered for requirement.</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>NOT STARTED</t>
+  </si>
+  <si>
+    <t>STARTED</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>Issue has not been started</t>
+  </si>
+  <si>
+    <t>Issue has been started</t>
+  </si>
+  <si>
+    <t>Issue has been finished (resolved)</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Deficiency in behavior compared to requirements.</t>
+  </si>
+  <si>
+    <t>Desired behavior, but not required.</t>
+  </si>
+  <si>
+    <t>Activity requiring effort to resolve (neither bug or feature)</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1045,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1077,7 +1092,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -1086,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
         <v>3</v>
@@ -1095,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>41899</v>
@@ -1120,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -1129,13 +1144,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1160,22 +1175,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
         <v>6</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -1206,56 +1221,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="2" width="5.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="C4" s="5"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
@@ -1265,60 +1297,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="2" width="5.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
